--- a/data/move/list_needed_moves.xlsx
+++ b/data/move/list_needed_moves.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Célande\Desktop\Pkm_bot\data\move\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Célande\Documents\Qt\V_RPG\data\move\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="271">
   <si>
     <t>Bulbasaur - Ivysaur - Venusaur</t>
   </si>
@@ -612,6 +612,231 @@
   </si>
   <si>
     <t>List of needed moves : https://bulbapedia.bulbagarden.net/wiki/List_of_Pok%C3%A9mon_by_Kanto_Pok%C3%A9dex_number</t>
+  </si>
+  <si>
+    <t>Ekans - Arbok</t>
+  </si>
+  <si>
+    <t>Ice Fang</t>
+  </si>
+  <si>
+    <t>Thunder Fang</t>
+  </si>
+  <si>
+    <t>Leer</t>
+  </si>
+  <si>
+    <t>Glare</t>
+  </si>
+  <si>
+    <t>Acid</t>
+  </si>
+  <si>
+    <t>Stockpile</t>
+  </si>
+  <si>
+    <t>Swallow</t>
+  </si>
+  <si>
+    <t>Spit Up</t>
+  </si>
+  <si>
+    <t>Acid Spray</t>
+  </si>
+  <si>
+    <t>Mud Bomb</t>
+  </si>
+  <si>
+    <t>Gastro Acid</t>
+  </si>
+  <si>
+    <t>Belch</t>
+  </si>
+  <si>
+    <t>Haze</t>
+  </si>
+  <si>
+    <t>Coil</t>
+  </si>
+  <si>
+    <t>Gunk Shot</t>
+  </si>
+  <si>
+    <t>Sludge Wave</t>
+  </si>
+  <si>
+    <t>Torment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Pulse </t>
+  </si>
+  <si>
+    <t>Iron Tail</t>
+  </si>
+  <si>
+    <t>Poison Fang</t>
+  </si>
+  <si>
+    <t>Slam</t>
+  </si>
+  <si>
+    <t>Snatch</t>
+  </si>
+  <si>
+    <t>Spite</t>
+  </si>
+  <si>
+    <t>Switcheroo</t>
+  </si>
+  <si>
+    <t>Pikachu - Raichu</t>
+  </si>
+  <si>
+    <t>Thunder Shock</t>
+  </si>
+  <si>
+    <t>Play Nice</t>
+  </si>
+  <si>
+    <t>Electro Ball</t>
+  </si>
+  <si>
+    <t>Spark</t>
+  </si>
+  <si>
+    <t>Nuzzle</t>
+  </si>
+  <si>
+    <t>Discharge</t>
+  </si>
+  <si>
+    <t>Volt Switch</t>
+  </si>
+  <si>
+    <t>Bestow</t>
+  </si>
+  <si>
+    <t>Bide</t>
+  </si>
+  <si>
+    <t>Disarming Voice</t>
+  </si>
+  <si>
+    <t>Double Slap</t>
+  </si>
+  <si>
+    <t>Electric Terrain</t>
+  </si>
+  <si>
+    <t>Encore</t>
+  </si>
+  <si>
+    <t>Fake Out</t>
+  </si>
+  <si>
+    <t>Flail</t>
+  </si>
+  <si>
+    <t>Lucky Chant</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Thunder Punch</t>
+  </si>
+  <si>
+    <t>Tickle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volt Tackle </t>
+  </si>
+  <si>
+    <t>Wish</t>
+  </si>
+  <si>
+    <t>Sweet Kiss</t>
+  </si>
+  <si>
+    <t>Nasty Plot</t>
+  </si>
+  <si>
+    <t>Celebrate</t>
+  </si>
+  <si>
+    <t>Happy Hour</t>
+  </si>
+  <si>
+    <t>Sandshrew - Sandslash</t>
+  </si>
+  <si>
+    <t>Defense Curl</t>
+  </si>
+  <si>
+    <t>Rollout</t>
+  </si>
+  <si>
+    <t>Fury Cutter</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>Crush Claw</t>
+  </si>
+  <si>
+    <t>Sand Tomb</t>
+  </si>
+  <si>
+    <t>Dig</t>
+  </si>
+  <si>
+    <t>Sandstorm</t>
+  </si>
+  <si>
+    <t>Stone Edge</t>
+  </si>
+  <si>
+    <t>Chip Away</t>
+  </si>
+  <si>
+    <t>Mud Shot</t>
+  </si>
+  <si>
+    <t>Night Slash</t>
+  </si>
+  <si>
+    <t>Rototiller</t>
+  </si>
+  <si>
+    <t>Nidoran - Nidorina - Nidoqueen</t>
+  </si>
+  <si>
+    <t>Double Kick</t>
+  </si>
+  <si>
+    <t>Flatter</t>
+  </si>
+  <si>
+    <t>Body Slam</t>
+  </si>
+  <si>
+    <t>Earth Power</t>
+  </si>
+  <si>
+    <t>Superpower</t>
+  </si>
+  <si>
+    <t>Quash</t>
+  </si>
+  <si>
+    <t>Venom Drench</t>
+  </si>
+  <si>
+    <t>Nidoran - Nidorino - Nidoking</t>
   </si>
 </sst>
 </file>
@@ -971,9 +1196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3273A171-AE7F-4AE2-9320-36C2B04A4DA2}">
-  <dimension ref="A1:A219"/>
+  <dimension ref="A1:A353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="A354" sqref="A354"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2035,6 +2262,651 @@
         <v>194</v>
       </c>
     </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
